--- a/data/trans_orig/P34F1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34F1_2023-Estudios-trans_orig.xlsx
@@ -689,12 +689,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -710,19 +710,19 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>604</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>407164</v>
+        <v>407163</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>32,29%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>13,92%</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,7 +869,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,51%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1124,12 +1124,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1193,19 +1193,19 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>723</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>454996</v>
+        <v>454995</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
@@ -1214,12 +1214,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>35,81%</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
         <v>2091</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1355600</v>
+        <v>1355599</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>38,82%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,64%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>46,47%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>17,33%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>13,37%</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,99%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>53,29%</t>
+          <t>53,14%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>51,58%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>51,22%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,46%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>15,78%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,61%</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,37%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>43,39%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,78%</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>21,19%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34F1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34F1_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -689,12 +689,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -710,19 +710,19 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>604</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>407163</v>
+        <v>407164</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>32,08%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>14,08%</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,7 +869,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,5%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1124,12 +1124,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1193,19 +1193,19 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>723</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>454995</v>
+        <v>454996</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
@@ -1214,12 +1214,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>35,73%</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
         <v>2091</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1355599</v>
+        <v>1355600</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>42,85%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>52,64%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>46,83%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>16,99%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,31%</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>19,8%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>53,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>44,95%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>46,18%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>51,22%</t>
+          <t>51,53%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>15,68%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,65%</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,66%</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,32%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>43,83%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,39%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>13,07%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,18%</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>21,23%</t>
         </is>
       </c>
     </row>
